--- a/biology/Médecine/Biebie_Songo/Biebie_Songo.xlsx
+++ b/biology/Médecine/Biebie_Songo/Biebie_Songo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Biebie Songo, née à Bikoro dans la province de l'Equateur en République démocratique du Congo, elle est professeur en Toxicologie à l'Université de Kinshasa  (UNIKIN) et membre fondateur de la Fondation GBS[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Biebie Songo, née à Bikoro dans la province de l'Equateur en République démocratique du Congo, elle est professeur en Toxicologie à l'Université de Kinshasa  (UNIKIN) et membre fondateur de la Fondation GBS.
 </t>
         </is>
       </c>
@@ -511,12 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Georgette Biebie Songo, née à Bikoro dans la province de l'Équateur en République démocratique du Congo, dans une famille de 21 enfants dont elle est l'ainée[2].
-Prix
-En mai 2004, l'association des Journalistes de Libre Opinion pour le Développement a octroyé à Georgette Biebie le prix honorifique pour l'émergence en leadership féminin.
-En août 2016, l'ONU Femmes a octroyé à Georgette Biebie le prix honorifique pour sa contribution à la promotion de l’égalité des sexes et l’autonomisation des femmes en RDC dans le cadre de la Journée Internationale de la Femme Africaine[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Georgette Biebie Songo, née à Bikoro dans la province de l'Équateur en République démocratique du Congo, dans une famille de 21 enfants dont elle est l'ainée.
 </t>
         </is>
       </c>
@@ -542,12 +553,52 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Prix</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En mai 2004, l'association des Journalistes de Libre Opinion pour le Développement a octroyé à Georgette Biebie le prix honorifique pour l'émergence en leadership féminin.
+En août 2016, l'ONU Femmes a octroyé à Georgette Biebie le prix honorifique pour sa contribution à la promotion de l’égalité des sexes et l’autonomisation des femmes en RDC dans le cadre de la Journée Internationale de la Femme Africaine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Biebie_Songo</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Biebie_Songo</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Action sociale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fondatrice de l'association Bien na Bien, basée à Kikwit, qui regroupe des femmes au foyer, des enseignantes et des agricultrices pour leur apprendre comment cultiver les denrées agricole telles que le maïs, les légumes et autres choses. Elle a ensuite créé une association d'épargne et de crédit pour générer des revenus de la récolte, ce qui a permis de créer une stabilité financière de ces femmes, en vue de scolariser leurs enfants, d'avoir des soins médicaux et tant d'autres choses[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fondatrice de l'association Bien na Bien, basée à Kikwit, qui regroupe des femmes au foyer, des enseignantes et des agricultrices pour leur apprendre comment cultiver les denrées agricole telles que le maïs, les légumes et autres choses. Elle a ensuite créé une association d'épargne et de crédit pour générer des revenus de la récolte, ce qui a permis de créer une stabilité financière de ces femmes, en vue de scolariser leurs enfants, d'avoir des soins médicaux et tant d'autres choses.
 </t>
         </is>
       </c>
